--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d2a6bb7e35da8ee/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SampleProject\TestRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D82B9E-410C-489D-ACD5-0452E36CC201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888E9F42-BFD1-45E7-BF16-43AB4C8CFA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDEFC5C3-4C57-4FF0-B93A-81C977CB49BC}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509CA7DD-C75C-499A-B23C-9DA6AD531171}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,6 +395,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
